--- a/Ex5/Observations.xlsx
+++ b/Ex5/Observations.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meher\Documents\ASem4\DAA_Winter_22-main\DAA_Winter_22-main\Ex5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE84576-7C7E-4C87-926F-74716A0B07B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8640"/>
+    <workbookView xWindow="-21105" yWindow="1245" windowWidth="16890" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>n</t>
   </si>
@@ -24,18 +30,15 @@
   <si>
     <t>DC</t>
   </si>
+  <si>
+    <t>Linear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,346 +46,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -390,318 +63,40 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -713,7 +108,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -727,7 +121,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -739,6 +133,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -823,22 +218,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.213</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.644</c:v>
+                  <c:v>4.6440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.242</c:v>
+                  <c:v>10.242000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.086</c:v>
+                  <c:v>18.085999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28.15</c:v>
@@ -847,6 +242,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3920-4647-B998-DC7E1351E143}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -923,19 +323,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.004</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.085</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.384</c:v>
+                  <c:v>2.3839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.989</c:v>
+                  <c:v>5.9889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.22</c:v>
@@ -947,9 +347,106 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3920-4647-B998-DC7E1351E143}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3920-4647-B998-DC7E1351E143}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -969,7 +466,6 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1004,7 +500,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr lang="en-IN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1016,6 +512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="662117575"/>
@@ -1031,7 +528,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1066,7 +562,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr lang="en-IN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1078,6 +574,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="331897303"/>
@@ -1094,7 +591,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1108,7 +604,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" kern="1200">
+            <a:defRPr lang="en-IN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1120,6 +616,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1156,11 +653,12 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1723,7 +1221,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1737,14 +1235,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3619500" y="1155700"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1762,7 +1266,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2014,17 +1518,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2034,74 +1537,87 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C2">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.2E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4">
-        <v>0.213</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="C4">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>50000</v>
       </c>
       <c r="B5">
-        <v>4.644</v>
+        <v>4.6440000000000001</v>
       </c>
       <c r="C5">
-        <v>2.384</v>
-      </c>
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>75000</v>
       </c>
       <c r="B6">
-        <v>10.242</v>
+        <v>10.242000000000001</v>
       </c>
       <c r="C6">
-        <v>5.989</v>
+        <v>5.9889999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>100000</v>
       </c>
       <c r="B7">
-        <v>18.086</v>
+        <v>18.085999999999999</v>
       </c>
       <c r="C7">
         <v>11.22</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>125000</v>
       </c>
@@ -2113,8 +1629,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>